--- a/Multicriteria/bin/Debug/qqq.xlsx
+++ b/Multicriteria/bin/Debug/qqq.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Сравнительные характеристики" sheetId="1" r:id="R82c135266f4448db"/>
-    <sheet name="System" sheetId="2" r:id="R484ac13baf204b84"/>
+    <sheet name="Сравнительные характеристики" sheetId="1" r:id="R6092c3b841f84114"/>
+    <sheet name="System" sheetId="2" r:id="R7d3a699c945e4469"/>
   </sheets>
   <d:definedNames xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </workbook>
@@ -15,13 +15,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>qq</t>
+    <t>qwe</t>
   </si>
   <si>
-    <t>aa</t>
+    <t>ffsdfs</t>
   </si>
   <si>
-    <t>bb</t>
+    <t>
+    </t>
   </si>
   <si>
     <t>Models count</t>
@@ -72,7 +73,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B3"/>
+  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -87,9 +88,18 @@
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -99,7 +109,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D3"/>
+  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -109,7 +119,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>4</v>
@@ -128,6 +138,11 @@
         <v>100</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Multicriteria/bin/Debug/qqq.xlsx
+++ b/Multicriteria/bin/Debug/qqq.xlsx
@@ -5,24 +5,60 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Сравнительные характеристики" sheetId="1" r:id="R6092c3b841f84114"/>
-    <sheet name="System" sheetId="2" r:id="R7d3a699c945e4469"/>
+    <sheet name="Сравнительные характеристики" sheetId="1" r:id="R655f6cfb7793466a"/>
+    <sheet name="System" sheetId="2" r:id="R77350970190a422f"/>
   </sheets>
   <d:definedNames xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>ffsdfs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>
     </t>
+  </si>
+  <si>
+    <t>f53f</t>
+  </si>
+  <si>
+    <t>4f54</t>
+  </si>
+  <si>
+    <t>3f5</t>
+  </si>
+  <si>
+    <t>wer</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>45454</t>
+  </si>
+  <si>
+    <t>54545</t>
+  </si>
+  <si>
+    <t>rfe</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>efr</t>
+  </si>
+  <si>
+    <t>4545</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
   <si>
     <t>Models count</t>
@@ -73,34 +109,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C3"/>
+  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0"/>
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -116,30 +197,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0">
         <v>3</v>
-      </c>
-      <c r="B1" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="0">
-        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
         <v>100</v>
       </c>
+      <c r="B3" s="0">
+        <v>100</v>
+      </c>
+      <c r="C3" s="0">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
         <v>0</v>
       </c>
     </row>

--- a/Multicriteria/bin/Debug/qqq.xlsx
+++ b/Multicriteria/bin/Debug/qqq.xlsx
@@ -5,60 +5,57 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Сравнительные характеристики" sheetId="1" r:id="R655f6cfb7793466a"/>
-    <sheet name="System" sheetId="2" r:id="R77350970190a422f"/>
+    <sheet name="Сравнительные характеристики" sheetId="1" r:id="R5722ab8de6f34bbf"/>
+    <sheet name="System" sheetId="2" r:id="Re5e150baa84d4b20"/>
   </sheets>
   <d:definedNames xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>
     </t>
   </si>
   <si>
-    <t>f53f</t>
-  </si>
-  <si>
-    <t>4f54</t>
-  </si>
-  <si>
-    <t>3f5</t>
-  </si>
-  <si>
-    <t>wer</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>45454</t>
-  </si>
-  <si>
-    <t>54545</t>
-  </si>
-  <si>
-    <t>rfe</t>
-  </si>
-  <si>
-    <t>45</t>
+    <t>main</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>efr</t>
-  </si>
-  <si>
-    <t>4545</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>54</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Models count</t>
@@ -109,7 +106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D5"/>
+  <d:dimension xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -150,38 +147,24 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -197,13 +180,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="0">
-        <v>4</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D1" s="0">
         <v>3</v>
@@ -225,10 +208,10 @@
         <v>100</v>
       </c>
       <c r="B3" s="0">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
